--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.7091407768208</v>
+        <v>51.12915033333334</v>
       </c>
       <c r="H2">
-        <v>50.7091407768208</v>
+        <v>153.387451</v>
       </c>
       <c r="I2">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252168</v>
       </c>
       <c r="J2">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252169</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N2">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O2">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P2">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q2">
-        <v>1739.192320158759</v>
+        <v>1814.507656898271</v>
       </c>
       <c r="R2">
-        <v>1739.192320158759</v>
+        <v>16330.56891208444</v>
       </c>
       <c r="S2">
-        <v>0.6459323740967611</v>
+        <v>0.6146832465106867</v>
       </c>
       <c r="T2">
-        <v>0.6459323740967611</v>
+        <v>0.6146832465106868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.7091407768208</v>
+        <v>51.12915033333334</v>
       </c>
       <c r="H3">
-        <v>50.7091407768208</v>
+        <v>153.387451</v>
       </c>
       <c r="I3">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252168</v>
       </c>
       <c r="J3">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252169</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N3">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O3">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P3">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q3">
-        <v>132.2681453995592</v>
+        <v>133.6138315722871</v>
       </c>
       <c r="R3">
-        <v>132.2681453995592</v>
+        <v>1202.524484150584</v>
       </c>
       <c r="S3">
-        <v>0.04912411133894264</v>
+        <v>0.04526306817022714</v>
       </c>
       <c r="T3">
-        <v>0.04912411133894264</v>
+        <v>0.04526306817022714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.7091407768208</v>
+        <v>51.12915033333334</v>
       </c>
       <c r="H4">
-        <v>50.7091407768208</v>
+        <v>153.387451</v>
       </c>
       <c r="I4">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252168</v>
       </c>
       <c r="J4">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252169</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N4">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O4">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P4">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q4">
-        <v>17.18254543840552</v>
+        <v>30.477166188994</v>
       </c>
       <c r="R4">
-        <v>17.18254543840552</v>
+        <v>274.294495700946</v>
       </c>
       <c r="S4">
-        <v>0.006381561279572356</v>
+        <v>0.01032445544458062</v>
       </c>
       <c r="T4">
-        <v>0.006381561279572356</v>
+        <v>0.01032445544458062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.7091407768208</v>
+        <v>51.12915033333334</v>
       </c>
       <c r="H5">
-        <v>50.7091407768208</v>
+        <v>153.387451</v>
       </c>
       <c r="I5">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252168</v>
       </c>
       <c r="J5">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252169</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N5">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O5">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P5">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q5">
-        <v>18.9133478929353</v>
+        <v>24.68392668132534</v>
       </c>
       <c r="R5">
-        <v>18.9133478929353</v>
+        <v>222.155340131928</v>
       </c>
       <c r="S5">
-        <v>0.007024377675199536</v>
+        <v>0.008361935609048507</v>
       </c>
       <c r="T5">
-        <v>0.007024377675199536</v>
+        <v>0.008361935609048507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.7091407768208</v>
+        <v>51.12915033333334</v>
       </c>
       <c r="H6">
-        <v>50.7091407768208</v>
+        <v>153.387451</v>
       </c>
       <c r="I6">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252168</v>
       </c>
       <c r="J6">
-        <v>0.8150545760316992</v>
+        <v>0.8013178159252169</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N6">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O6">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P6">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q6">
-        <v>287.0025701728381</v>
+        <v>362.1590031810233</v>
       </c>
       <c r="R6">
-        <v>287.0025701728381</v>
+        <v>3259.431028629209</v>
       </c>
       <c r="S6">
-        <v>0.1065921516412234</v>
+        <v>0.1226851101906737</v>
       </c>
       <c r="T6">
-        <v>0.1065921516412234</v>
+        <v>0.1226851101906737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.86341610002164</v>
+        <v>2.875170333333333</v>
       </c>
       <c r="H7">
-        <v>2.86341610002164</v>
+        <v>8.625510999999999</v>
       </c>
       <c r="I7">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="J7">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N7">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O7">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P7">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q7">
-        <v>98.20776322151684</v>
+        <v>102.0360899938304</v>
       </c>
       <c r="R7">
-        <v>98.20776322151684</v>
+        <v>918.3248099444741</v>
       </c>
       <c r="S7">
-        <v>0.03647415695040347</v>
+        <v>0.0345657814229773</v>
       </c>
       <c r="T7">
-        <v>0.03647415695040347</v>
+        <v>0.0345657814229773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.86341610002164</v>
+        <v>2.875170333333333</v>
       </c>
       <c r="H8">
-        <v>2.86341610002164</v>
+        <v>8.625510999999999</v>
       </c>
       <c r="I8">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="J8">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N8">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O8">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P8">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q8">
-        <v>7.468845483381231</v>
+        <v>7.513571458847111</v>
       </c>
       <c r="R8">
-        <v>7.468845483381231</v>
+        <v>67.62214312962399</v>
       </c>
       <c r="S8">
-        <v>0.002773913522342328</v>
+        <v>0.002545300087137142</v>
       </c>
       <c r="T8">
-        <v>0.002773913522342328</v>
+        <v>0.002545300087137142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.86341610002164</v>
+        <v>2.875170333333333</v>
       </c>
       <c r="H9">
-        <v>2.86341610002164</v>
+        <v>8.625510999999999</v>
       </c>
       <c r="I9">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="J9">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N9">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O9">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P9">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q9">
-        <v>0.9702546028974219</v>
+        <v>1.713837282634</v>
       </c>
       <c r="R9">
-        <v>0.9702546028974219</v>
+        <v>15.424535543706</v>
       </c>
       <c r="S9">
-        <v>0.0003603505212526657</v>
+        <v>0.0005805801154244358</v>
       </c>
       <c r="T9">
-        <v>0.0003603505212526657</v>
+        <v>0.0005805801154244359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.86341610002164</v>
+        <v>2.875170333333333</v>
       </c>
       <c r="H10">
-        <v>2.86341610002164</v>
+        <v>8.625510999999999</v>
       </c>
       <c r="I10">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="J10">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N10">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O10">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P10">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q10">
-        <v>1.067988611763195</v>
+        <v>1.388063232845333</v>
       </c>
       <c r="R10">
-        <v>1.067988611763195</v>
+        <v>12.492569095608</v>
       </c>
       <c r="S10">
-        <v>0.0003966487268305861</v>
+        <v>0.0004702207847312072</v>
       </c>
       <c r="T10">
-        <v>0.0003966487268305861</v>
+        <v>0.0004702207847312072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.86341610002164</v>
+        <v>2.875170333333333</v>
       </c>
       <c r="H11">
-        <v>2.86341610002164</v>
+        <v>8.625510999999999</v>
       </c>
       <c r="I11">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="J11">
-        <v>0.04602405719467997</v>
+        <v>0.04506089377389114</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N11">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O11">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P11">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q11">
-        <v>16.20630457529157</v>
+        <v>20.36546305008322</v>
       </c>
       <c r="R11">
-        <v>16.20630457529157</v>
+        <v>183.289167450749</v>
       </c>
       <c r="S11">
-        <v>0.006018987473850916</v>
+        <v>0.006899011363621058</v>
       </c>
       <c r="T11">
-        <v>0.006018987473850916</v>
+        <v>0.006899011363621058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.643081520909</v>
+        <v>9.802011</v>
       </c>
       <c r="H12">
-        <v>8.643081520909</v>
+        <v>29.406033</v>
       </c>
       <c r="I12">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="J12">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.2974125279154</v>
+        <v>35.48871133333333</v>
       </c>
       <c r="N12">
-        <v>34.2974125279154</v>
+        <v>106.466134</v>
       </c>
       <c r="O12">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="P12">
-        <v>0.7925019907766758</v>
+        <v>0.7670904531193554</v>
       </c>
       <c r="Q12">
-        <v>296.4353324350184</v>
+        <v>347.860738865158</v>
       </c>
       <c r="R12">
-        <v>296.4353324350184</v>
+        <v>3130.746649786422</v>
       </c>
       <c r="S12">
-        <v>0.1100954597295113</v>
+        <v>0.1178414251856913</v>
       </c>
       <c r="T12">
-        <v>0.1100954597295113</v>
+        <v>0.1178414251856913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.643081520909</v>
+        <v>9.802011</v>
       </c>
       <c r="H13">
-        <v>8.643081520909</v>
+        <v>29.406033</v>
       </c>
       <c r="I13">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="J13">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.60836889312901</v>
+        <v>2.613261333333333</v>
       </c>
       <c r="N13">
-        <v>2.60836889312901</v>
+        <v>7.839784</v>
       </c>
       <c r="O13">
-        <v>0.06027094722676841</v>
+        <v>0.05648578787427251</v>
       </c>
       <c r="P13">
-        <v>0.06027094722676841</v>
+        <v>0.0564857878742725</v>
       </c>
       <c r="Q13">
-        <v>22.54434497991721</v>
+        <v>25.615216335208</v>
       </c>
       <c r="R13">
-        <v>22.54434497991721</v>
+        <v>230.536947016872</v>
       </c>
       <c r="S13">
-        <v>0.008372922365483445</v>
+        <v>0.008677419616908225</v>
       </c>
       <c r="T13">
-        <v>0.008372922365483445</v>
+        <v>0.008677419616908223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.643081520909</v>
+        <v>9.802011</v>
       </c>
       <c r="H14">
-        <v>8.643081520909</v>
+        <v>29.406033</v>
       </c>
       <c r="I14">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="J14">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.338845130782805</v>
+        <v>0.596082</v>
       </c>
       <c r="N14">
-        <v>0.338845130782805</v>
+        <v>1.788246</v>
       </c>
       <c r="O14">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="P14">
-        <v>0.007829612233628099</v>
+        <v>0.01288434531142903</v>
       </c>
       <c r="Q14">
-        <v>2.928666088318855</v>
+        <v>5.842802320902</v>
       </c>
       <c r="R14">
-        <v>2.928666088318855</v>
+        <v>52.585220888118</v>
       </c>
       <c r="S14">
-        <v>0.001087700432803078</v>
+        <v>0.001979309751423976</v>
       </c>
       <c r="T14">
-        <v>0.001087700432803078</v>
+        <v>0.001979309751423976</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.643081520909</v>
+        <v>9.802011</v>
       </c>
       <c r="H15">
-        <v>8.643081520909</v>
+        <v>29.406033</v>
       </c>
       <c r="I15">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="J15">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.37297709255568</v>
+        <v>0.482776</v>
       </c>
       <c r="N15">
-        <v>0.37297709255568</v>
+        <v>1.448328</v>
       </c>
       <c r="O15">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="P15">
-        <v>0.008618291193946187</v>
+        <v>0.01043522987117622</v>
       </c>
       <c r="Q15">
-        <v>3.223671416390363</v>
+        <v>4.732175662536</v>
       </c>
       <c r="R15">
-        <v>3.223671416390363</v>
+        <v>42.589580962824</v>
       </c>
       <c r="S15">
-        <v>0.001197264791916065</v>
+        <v>0.001603073477396502</v>
       </c>
       <c r="T15">
-        <v>0.001197264791916065</v>
+        <v>0.001603073477396501</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.643081520909</v>
+        <v>9.802011</v>
       </c>
       <c r="H16">
-        <v>8.643081520909</v>
+        <v>29.406033</v>
       </c>
       <c r="I16">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="J16">
-        <v>0.1389213667736209</v>
+        <v>0.153621290300892</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.65977979070841</v>
+        <v>7.083219666666667</v>
       </c>
       <c r="N16">
-        <v>5.65977979070841</v>
+        <v>21.249659</v>
       </c>
       <c r="O16">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="P16">
-        <v>0.1307791585689813</v>
+        <v>0.1531041838237668</v>
       </c>
       <c r="Q16">
-        <v>48.91793812148607</v>
+        <v>69.42979708808301</v>
       </c>
       <c r="R16">
-        <v>48.91793812148607</v>
+        <v>624.868173792747</v>
       </c>
       <c r="S16">
-        <v>0.01816801945390698</v>
+        <v>0.02352006226947202</v>
       </c>
       <c r="T16">
-        <v>0.01816801945390698</v>
+        <v>0.02352006226947202</v>
       </c>
     </row>
   </sheetData>
